--- a/대학교 테이블 정리.xlsx
+++ b/대학교 테이블 정리.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="122">
   <si>
     <t>과목</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>과목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -110,135 +106,403 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>교수실</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석점수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업요건</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학년도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총학점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공이수학점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반이수학점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업작품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업논문</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업시험</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업요건번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업작품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업가능여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업논문</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업시험</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_poin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_age</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_subject_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_schedule</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_semester</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_age</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_semester</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_address</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_resident_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_class_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_mid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_attendance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_report</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_rating</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_entrance_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_degree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_major_point</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_general_point</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_english</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_paper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_certificate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_requirement_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_english</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_paper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_certificate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>개인연락처</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>교수실</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의실</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>기말성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석점수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>총점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업요건</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>입학년도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>총학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>전공이수학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반이수학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업작품</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업논문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업시험</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자격증</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학위</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업요건번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업작품</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업가능여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업논문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업시험</t>
+    <t>교수번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -697,335 +961,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/대학교 테이블 정리.xlsx
+++ b/대학교 테이블 정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="20475" windowHeight="9870"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="20475" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="168">
   <si>
     <t>과목</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -294,91 +294,211 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>class_room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_schedule</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_semester</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_age</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_semester</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_address</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_resident_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_class_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_mid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_attendance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_report</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_rating</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_entrance_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_degree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_major_point</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_general_point</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_english</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_paper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_certificate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_requirement_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_english</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_paper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_certificate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인연락처</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>class_subject_code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>class_room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_schedule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_semester</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_age</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_grade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_semester</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_address</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_resident_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_class_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_mid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_attendance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_report</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_rating</t>
+    <t>학번</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -386,123 +506,187 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>advise_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>advise_professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>advise_student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_entrance_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_degree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_major_point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_general_point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_english</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_requirement_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_ok</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_english</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인연락처</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수번호</t>
+    <t>회원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_nick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_add</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_contents</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_writer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_registered_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_file</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_café_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_board_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_visit_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_last_visit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_café_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 카테고리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_writer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_filepath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_board_file</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_category_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_filename</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,6 +839,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -1075,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1083,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1106,22 +1293,22 @@
         <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1161,28 +1348,28 @@
     </row>
     <row r="15" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1225,31 +1412,31 @@
     </row>
     <row r="19" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1274,13 +1461,13 @@
     </row>
     <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1289,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1314,22 +1501,22 @@
     </row>
     <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1354,22 +1541,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1377,12 +1564,12 @@
         <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>46</v>
@@ -1405,25 +1592,25 @@
     </row>
     <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1433,7 +1620,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1445,18 +1632,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/대학교 테이블 정리.xlsx
+++ b/대학교 테이블 정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="183">
   <si>
     <t>과목</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -126,567 +126,627 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>중간성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석점수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업요건</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학년도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총학점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공이수학점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반이수학점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업작품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업논문</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업시험</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업요건번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업작품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업가능여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어성적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업논문</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업시험</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_poin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor_age</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_semester</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_age</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_semester</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_address</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_resident_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_class_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_mid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_attendance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_report</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_rating</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise_student_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_entrance_year</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_major</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_degree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_major_point</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_general_point</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_english</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_paper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement_certificate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_requirement_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_english</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_paper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_certificate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_professor_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인연락처</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_subject_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_nick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_add</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café_category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_contents</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_writer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_registered_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_café_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_board_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_visit_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_last_visit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_café_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 카테고리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_writer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_filepath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_category_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_filename</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtext</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtext</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>website</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int =&gt; 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_board_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>café</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>강의번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>중간성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>기말성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석점수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>총점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업요건</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>입학년도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>총학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>전공이수학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반이수학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업작품</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업논문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업시험</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자격증</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학위</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업요건번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업작품</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업가능여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업논문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업시험</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_poin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor_phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor_room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor_age</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>class_schedule</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>class_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_semester</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_age</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_grade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_semester</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_address</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_resident_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_class_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_mid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_attendance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_report</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>course_rating</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>advise_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>advise_professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>advise_student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_entrance_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_degree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_major_point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_general_point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_english</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>requirement_certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_requirement_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_ok</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_english</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인연락처</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_subject_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>advise</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_pw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_email</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_nick</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_add</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>café</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>café_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>café_grade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>café_total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>café_detail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>café_category</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_contents</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_writer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_registered_date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_file</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>소속</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_café_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_user_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_grade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_board_count</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_visit_count</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_last_visit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_café_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 카테고리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_writer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_read</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_filepath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_board_file</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_category_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_filename</t>
+    <t>int =&gt;0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +791,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -814,7 +883,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,8 +896,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,8 +916,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="계산" xfId="4" builtinId="22"/>
     <cellStyle name="셀 확인" xfId="3" builtinId="23"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
     <cellStyle name="출력" xfId="2" builtinId="21"/>
@@ -1151,7 +1227,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1192,19 +1268,19 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1224,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -1238,22 +1314,22 @@
     </row>
     <row r="7" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1262,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1273,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1290,25 +1366,25 @@
     </row>
     <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1348,28 +1424,28 @@
     </row>
     <row r="15" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1389,68 +1465,68 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1461,166 +1537,166 @@
     </row>
     <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1632,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1649,229 +1725,297 @@
     <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B10" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="B16" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="22" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B24" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D25" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/대학교 테이블 정리.xlsx
+++ b/대학교 테이블 정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="20475" windowHeight="9870" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="20475" windowHeight="9870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
   <si>
     <t>과목</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -747,6 +747,102 @@
   </si>
   <si>
     <t>int =&gt;0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_like_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int =&gt; 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_board_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 좋아요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 아무것도 아님</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select를 이용해서 like 테이블에 A회원이 1번 게시물에 좋아요를 눌렀는지 확인 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A회원이 1번 게시물에 좋아요를 누름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into like(like_user_id,like_board_no) values('A회원',1);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from like where like_user_id ='A회원' and like_board_no = 1;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>없다면 insert문을 이용하여 like 테이블에 A회원이 1번 게시물에 좋아요를 눌렀다는 정보를 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다면 4번줄에서 검색한 정보에 like_ok를 확인하여(java에서확인) 1이면 0으로 0이면 1로 만든다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update like set like_ok = 0(또는 1) where like_board_no = 1 and like_user_id = 'A회원';</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board 테이블에 있는 board_like_count의 개수를 1개 증가시킨다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update board set board_like_count = board_like_count+1 where board_no = 1;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update board set board_like_count = board_like_count-1(또는 +1) where board_no = 1;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값으로 1로 할경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 1 또는 0 또는 -1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,8 +901,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,8 +932,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -882,8 +991,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,8 +1023,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,9 +1046,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="계산" xfId="4" builtinId="22"/>
+    <cellStyle name="메모" xfId="5" builtinId="10"/>
     <cellStyle name="셀 확인" xfId="3" builtinId="23"/>
     <cellStyle name="입력" xfId="1" builtinId="20"/>
     <cellStyle name="출력" xfId="2" builtinId="21"/>
@@ -1708,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1883,10 +2020,16 @@
       <c r="B13" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>166</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2014,23 +2157,129 @@
     <row r="27" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
+    <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="89.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
